--- a/Git/02_GitとSubversion/GitとSubversion（大橋）.xlsx
+++ b/Git/02_GitとSubversion/GitとSubversion（大橋）.xlsx
@@ -11,14 +11,15 @@
     <sheet name="【表】GitとSubversionの比較" sheetId="7" r:id="rId2"/>
     <sheet name="【表】ホスティングサービスの比較" sheetId="8" r:id="rId3"/>
     <sheet name="参考画像" sheetId="6" r:id="rId4"/>
-    <sheet name="new" sheetId="5" r:id="rId5"/>
+    <sheet name="調べること" sheetId="9" r:id="rId5"/>
+    <sheet name="new" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>GitとSubversion</t>
     <phoneticPr fontId="2"/>
@@ -340,23 +341,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・自分専用のリポジトリが作れるので、気軽にリポジトリの操作ができる</t>
-    <rPh sb="1" eb="3">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■Git</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイルの状態を操作</t>
     <rPh sb="5" eb="7">
       <t>ジョウタイ</t>
@@ -402,19 +386,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.slideshare.net/ihcomega/git-57454868</t>
-  </si>
-  <si>
-    <t>・参考スライド</t>
-    <rPh sb="1" eb="3">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.slideshare.net/syobochim/20160128-jjug-nightgit</t>
-  </si>
-  <si>
     <t>・プルリクエストで品質UP</t>
     <rPh sb="9" eb="11">
       <t>ヒンシツ</t>
@@ -439,22 +410,6 @@
   </si>
   <si>
     <t>〇(GitHub)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■Subversionで不便に感じているところが、Gitを使うとどれだけ便利になるか</t>
-    <rPh sb="12" eb="14">
-      <t>フベン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ベンリ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -505,9 +460,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>GitBucket</t>
-  </si>
-  <si>
     <t>機能はほぼ同じ（GitBucketは、GitHubを元に開発）</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -522,9 +474,6 @@
       <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GitBucketのメリット</t>
   </si>
   <si>
     <t>・GitHubを閉じた環境で使いたい場合は、有料となる（無料だとオンラインでリポジトリが公開される）→提案するにはハードル高い
@@ -748,68 +697,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>▼別件名で、同じソースを改修する場合</t>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンメイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Git：</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Subversion：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マージ対象ソースを選定し、手動でマージが必要</t>
-    <rPh sb="3" eb="5">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>片方のソースリリース時に、もう片方のソースはコミットしない運用が何かしら必要</t>
-    <rPh sb="0" eb="2">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -832,26 +724,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>▼ソースレビュー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベースリポジトリにソースを上げてレビューする必要がある。ソースにバグがあった場合、チームに影響がでる</t>
-    <rPh sb="13" eb="14">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>エイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プルリクエストで、レビュー済みのソースのみをベースリポジトリに上げる運用ができる</t>
     <rPh sb="13" eb="14">
       <t>ズ</t>
@@ -922,10 +794,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブランチマージにより、変更ソースのみマージできる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>→手動で行う作業漏れを防止できる（品質向上）</t>
     <rPh sb="1" eb="3">
       <t>シュドウ</t>
@@ -970,11 +838,353 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Subversionイメージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>▼</t>
+    <t>GitBucket</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitLog</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitLab</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼ソースレビュー（＆タスク管理）</t>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベースリポジトリにソースを上げてレビューする必要がある。ソースにバグがあった場合、チーム全体に影響がでる</t>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>片方のソースリリース時に、もう片方のソースは反映しない運用が何かしら必要</t>
+    <rPh sb="0" eb="2">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Tips</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼別件名で、同じソースを改修する場合(※リリース時期は別)</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランチを切るたびに、ベースリポジトリと同じ容量が必要（実ファイルが作られるため）</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランチを切るたびに、ベースリポジトリと同じ容量は不要（スナップショットのみのため）</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼ロックされているソース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソースがロックされていると、ほかの人がソースに対してリポジトリ操作できない（コミット）</t>
+    <rPh sb="17" eb="18">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そもそもロック機能がない。ローカルリポジトリは自由に変更可能（後でベースリポジトリにマージ）</t>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もしくは、ブランチ切ってそっちに反映（後でベースリポジトリにマージ）</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロックしたまま帰宅されると困ることがある</t>
+    <rPh sb="7" eb="9">
+      <t>キタク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■参考</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スライド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ProGit（無料電子書籍）※Git公式</t>
+    <rPh sb="8" eb="10">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼共有リポジトリにつながらなくなった場合</t>
+    <rPh sb="1" eb="3">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリへの操作が可能。</t>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リポジトリへの操作ができない。</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■Gitの大前提</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Subversionイメージ（コマンドはGitのもの）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▼ディスク容量を圧迫してしまう</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アッパク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・自分専用（ローカル）リポジトリが作れるので、気軽にリポジトリの操作ができる</t>
+    <rPh sb="1" eb="3">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・リポジトリ毎にPush権限を変えることができる</t>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.slideshare.net/ihcomega/git-57454868</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.slideshare.net/syobochim/20160128-jjug-nightgit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://progit-ja.github.io/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>調べること</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・なんかサーバーにリポジトリ立てるとき、LinuxのCent OSを使っていることが多いけどなんで？</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitBucket、GitLabのメリット
+GitBucket：JVMで動く。（Javaアプリケーションサーバーで動作させるためのWARファイルが公開されている）</t>
+    <rPh sb="36" eb="37">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■Subversion（SVN）で不便に感じているところが、Gitを使うとどれだけ便利になるか</t>
+    <rPh sb="17" eb="19">
+      <t>フベン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ベンリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1098,14 +1308,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:colOff>38099</xdr:colOff>
+          <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>70</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -1115,7 +1325,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【表】ホスティングサービスの比較!$B$4:$E$9" spid="_x0000_s3109"/>
+                  <a14:cameraTool cellRange="【表】ホスティングサービスの比較!$B$4:$G$9" spid="_x0000_s3149"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1129,8 +1339,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="238125" y="10801350"/>
-              <a:ext cx="7562850" cy="2209800"/>
+              <a:off x="238124" y="11201400"/>
+              <a:ext cx="8791576" cy="2209800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1158,13 +1368,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>38</xdr:col>
           <xdr:colOff>161925</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -1174,7 +1384,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【表】GitとSubversionの比較!$B$3:$E$9" spid="_x0000_s3110"/>
+                  <a14:cameraTool cellRange="【表】GitとSubversionの比較!$B$3:$E$9" spid="_x0000_s3150"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1215,13 +1425,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>29157</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1259,13 +1469,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>11455</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>30103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1792,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y136"/>
+  <dimension ref="A1:Y173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1810,7 +2020,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1829,14 +2039,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>41</v>
+      <c r="A11" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,250 +2056,345 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y101" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H126" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H128" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D83" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D84" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D93" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C98" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C99" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D101" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D102" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D104" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y104" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="1" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="1" t="s">
-        <v>72</v>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C135" r:id="rId1"/>
-    <hyperlink ref="C71" r:id="rId2" location="backup-script"/>
-    <hyperlink ref="C74" r:id="rId3"/>
+    <hyperlink ref="C160" r:id="rId1"/>
+    <hyperlink ref="C75" r:id="rId2" location="backup-script"/>
+    <hyperlink ref="C78" r:id="rId3"/>
+    <hyperlink ref="B169" r:id="rId4"/>
+    <hyperlink ref="B170" r:id="rId5"/>
+    <hyperlink ref="B173" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2097,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2113,15 +2418,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -2132,10 +2437,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>
@@ -2146,10 +2451,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>22</v>
@@ -2160,10 +2465,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -2174,10 +2479,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -2188,13 +2493,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -2202,10 +2507,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>34</v>
@@ -2220,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2231,28 +2536,34 @@
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2262,11 +2573,13 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2276,11 +2589,13 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2290,11 +2605,15 @@
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2304,11 +2623,13 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2318,8 +2639,10 @@
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="AC61" sqref="AC61"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AE75" sqref="AE75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2675,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2375,22 +2698,22 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -2401,21 +2724,6 @@
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2431,10 +2739,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2792,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
